--- a/ProyectoSemestreWeb/Requerimientos Proyecto.xlsx
+++ b/ProyectoSemestreWeb/Requerimientos Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://profesoresuniajcedu-my.sharepoint.com/personal/cristiandlopez_estudiante_uniajc_edu_co/Documents/Universidad/Fundamentos Web/ProyectoSemestreWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{734A9C99-6CDA-4D18-BD0F-D8684CA19849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F61EA510-30DF-4F58-88AC-A815033B75C9}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{734A9C99-6CDA-4D18-BD0F-D8684CA19849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72FCC5F3-F9F9-4051-B9E1-E9D007D02F6C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DAC96EC-DC58-4460-A069-A9D1CE29242F}"/>
   </bookViews>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D9E3A6-8223-49F2-BA59-B1B449ADF441}">
   <dimension ref="A3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -745,7 +745,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -753,7 +753,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -761,7 +761,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
     </row>

--- a/ProyectoSemestreWeb/Requerimientos Proyecto.xlsx
+++ b/ProyectoSemestreWeb/Requerimientos Proyecto.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://profesoresuniajcedu-my.sharepoint.com/personal/cristiandlopez_estudiante_uniajc_edu_co/Documents/Universidad/Fundamentos Web/ProyectoSemestreWeb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://profesoresuniajcedu-my.sharepoint.com/personal/cristiandlopez_estudiante_uniajc_edu_co/Documents/Universidad/Fundamentos Web/ProyectoSemestreWeb/ProyectoSemestreWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{734A9C99-6CDA-4D18-BD0F-D8684CA19849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72FCC5F3-F9F9-4051-B9E1-E9D007D02F6C}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{734A9C99-6CDA-4D18-BD0F-D8684CA19849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5EE6FC1-BA8D-40F9-958C-4BDECD7E347A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DAC96EC-DC58-4460-A069-A9D1CE29242F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{8DAC96EC-DC58-4460-A069-A9D1CE29242F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requerimientos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Desarrollo</t>
   </si>
@@ -184,13 +185,75 @@
   </si>
   <si>
     <t>Se habilita el boton de página anterior para regresar a los primeros 10 elementos</t>
+  </si>
+  <si>
+    <t>Cuando se llega la última página el boton de siguiente debe inhabilitarse</t>
+  </si>
+  <si>
+    <t>La sección de filtros debe tener mínimo dos campos para ingresar o seleccionar
+los filtros que se pueden aplicar, los filtros pueden ser entradas de texto o
+selectores de opciones.</t>
+  </si>
+  <si>
+    <t>En la lista del sistema se debe tener mínimo 5 caracteristicas de cada elemento.</t>
+  </si>
+  <si>
+    <t>El usuario puede seleccionar uno o más filtros y luego aplicarlos con un botón de Filtrar.</t>
+  </si>
+  <si>
+    <t>La lista y la paginación se actualiza con la cantidad de elementos que coincidan con la busqueda</t>
+  </si>
+  <si>
+    <t>El usuario puede eliminar los filtros y regresar a las condiciones iniciales de la DB con un botón de Limpiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cada elemento de la lista de elementos debe tener un botón de nombre “Ver mas”
+que permitirá ingresar a los detalles de cada elemento.</t>
+  </si>
+  <si>
+    <t>Título del elemento</t>
+  </si>
+  <si>
+    <t>Imagen del elemento.</t>
+  </si>
+  <si>
+    <t>9 caracteristicas adicionales de libre selección, las cuales dependerá de la linea de negocio que haya elegido el estudiante.</t>
+  </si>
+  <si>
+    <t>botón para “Actualizar”.</t>
+  </si>
+  <si>
+    <t>botón para “Regresar” a la lista principal.</t>
+  </si>
+  <si>
+    <t>Las propiedades del elemento que sean campos de texto deben visualizar como elementos Input de html para facilitar la edición del elemento.</t>
+  </si>
+  <si>
+    <t>El usuario puede modificar el contenido de los campos de texto tipo inputs.</t>
+  </si>
+  <si>
+    <t>El usuario tendrá la posibilidad de dar click en el botón “Actualizar” para almacenar los cambios realizados en las características editadas.</t>
+  </si>
+  <si>
+    <t>Una vez se almacenen los cambios el usuario será redirigido a la vista de la lista
+donde se podrá ver el cambio efectuado en el elemento. Esta transición de
+actualizar y redirigir se debe ejecutar con una promesa que tardará 1.5 segundos</t>
+  </si>
+  <si>
+    <t>El usuario tiene la posibilidad de dar click en el boton “Regresar” el cual redirige nuevamente a la lista principal.</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +269,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +291,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -229,11 +306,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,10 +334,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,21 +673,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D9E3A6-8223-49F2-BA59-B1B449ADF441}">
-  <dimension ref="A3:D23"/>
+  <dimension ref="A3:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -600,7 +709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -614,7 +723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -628,7 +737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -642,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -653,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -664,7 +773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -675,7 +784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -683,7 +792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -691,79 +800,340 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199E07C7-6040-4487-A0CC-1EC3B7120128}">
+  <dimension ref="A2:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="98.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
